--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05681933837254057</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.547085178966391</v>
+        <v>-1.555020596366428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008264501536549488</v>
+        <v>0.0142442001783708</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1231881313597561</v>
+        <v>-0.1213701392746539</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04748978600069029</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.550078176325544</v>
+        <v>-1.553799157528299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01878209730508068</v>
+        <v>0.02556769373700795</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08144986632022581</v>
+        <v>-0.07940993753902012</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04727169687982188</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.629135647721553</v>
+        <v>-1.635564728822506</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04361359468239989</v>
+        <v>-0.03593710342781643</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08889969882134197</v>
+        <v>-0.08638284224638217</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05897855148783399</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.776607860224896</v>
+        <v>-1.782882687451962</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1037789015749974</v>
+        <v>-0.09867593158374054</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09225708160707634</v>
+        <v>-0.0908137060728436</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07501756407116668</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.844951770471772</v>
+        <v>-1.855294650117839</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1380862223428672</v>
+        <v>-0.1339874765510002</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09138979707123966</v>
+        <v>-0.09025650330390317</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08922400181611344</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.667984800663936</v>
+        <v>-1.676551399731615</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1558411580311389</v>
+        <v>-0.1553878405242043</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0949266180368023</v>
+        <v>-0.09432062067510154</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09956858537355005</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.327950236898909</v>
+        <v>-1.330114513190698</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1717104188120925</v>
+        <v>-0.1661604273903862</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04621702230903122</v>
+        <v>-0.04558426662226835</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.105537293221898</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7976820831621629</v>
+        <v>-0.7959931606450074</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1173170400373046</v>
+        <v>-0.1153715524033769</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0592184202509749</v>
+        <v>-0.0596733117770308</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1060046230729774</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2408035621607074</v>
+        <v>-0.23991109331893</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1287223825902494</v>
+        <v>-0.1339024795184499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02017038217006789</v>
+        <v>0.02373868351805655</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09761366998306142</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3501808051610914</v>
+        <v>0.354638427312615</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1542482506803826</v>
+        <v>-0.1531920838499899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09551238143024661</v>
+        <v>0.0970753824176982</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07403940786472769</v>
       </c>
       <c r="E12" t="n">
-        <v>1.02111904776848</v>
+        <v>1.026889401867168</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2428198806550936</v>
+        <v>-0.2528495304960216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1567511693635712</v>
+        <v>0.1557674074127582</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02953896431053294</v>
       </c>
       <c r="E13" t="n">
-        <v>1.720320377717944</v>
+        <v>1.733579914795781</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4074433925136899</v>
+        <v>-0.4188723453534542</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2641842704688283</v>
+        <v>0.2641543641055236</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03800557693242113</v>
       </c>
       <c r="E14" t="n">
-        <v>2.389871909479466</v>
+        <v>2.405396460072855</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6528990823275618</v>
+        <v>-0.6633568653694836</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3707138845984589</v>
+        <v>0.3729820461522532</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1268606583608856</v>
       </c>
       <c r="E15" t="n">
-        <v>3.100371548681626</v>
+        <v>3.120378905732479</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9501234740314527</v>
+        <v>-0.9641346052397107</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5135970443536501</v>
+        <v>0.5189030628115547</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2280349980696544</v>
       </c>
       <c r="E16" t="n">
-        <v>3.78358714043516</v>
+        <v>3.802744527160511</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.184938007575771</v>
+        <v>-1.200382283193973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.67611924068531</v>
+        <v>0.6805611226456205</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3287646819202792</v>
       </c>
       <c r="E17" t="n">
-        <v>4.458866527779096</v>
+        <v>4.475939913187845</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.482512618534152</v>
+        <v>-1.503875206048444</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8491385705369242</v>
+        <v>0.8522692945691913</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4233957139923897</v>
       </c>
       <c r="E18" t="n">
-        <v>5.137564684654497</v>
+        <v>5.160310834976413</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.692847219694441</v>
+        <v>-1.712227330125456</v>
       </c>
       <c r="G18" t="n">
-        <v>1.009106133834713</v>
+        <v>1.010266185927112</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5118819905860839</v>
       </c>
       <c r="E19" t="n">
-        <v>5.619946454663912</v>
+        <v>5.639690950521508</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.925890194717736</v>
+        <v>-1.95129643735465</v>
       </c>
       <c r="G19" t="n">
-        <v>1.172331916713594</v>
+        <v>1.175308386871974</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5938712224367271</v>
       </c>
       <c r="E20" t="n">
-        <v>6.056609265276028</v>
+        <v>6.082545952356821</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.073829103890545</v>
+        <v>-2.10009633498681</v>
       </c>
       <c r="G20" t="n">
-        <v>1.298801205071862</v>
+        <v>1.302355340247759</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.667598134124525</v>
       </c>
       <c r="E21" t="n">
-        <v>6.341853010438139</v>
+        <v>6.367608685319982</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.271705343705739</v>
+        <v>-2.294532556012403</v>
       </c>
       <c r="G21" t="n">
-        <v>1.411453753583352</v>
+        <v>1.415489538610367</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7317113643107298</v>
       </c>
       <c r="E22" t="n">
-        <v>6.67484934770227</v>
+        <v>6.699904584075134</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.364577980929405</v>
+        <v>-2.387209227855466</v>
       </c>
       <c r="G22" t="n">
-        <v>1.503941543131859</v>
+        <v>1.507756965481892</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7856895696795398</v>
       </c>
       <c r="E23" t="n">
-        <v>6.79025013359955</v>
+        <v>6.820672775176051</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.449814264386079</v>
+        <v>-2.473259279197853</v>
       </c>
       <c r="G23" t="n">
-        <v>1.602953641938158</v>
+        <v>1.606773786345555</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8301048013604847</v>
       </c>
       <c r="E24" t="n">
-        <v>6.918812867389148</v>
+        <v>6.946589582822742</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.499698078378341</v>
+        <v>-2.520763963288268</v>
       </c>
       <c r="G24" t="n">
-        <v>1.599704866471793</v>
+        <v>1.609092316511231</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8652420104620235</v>
       </c>
       <c r="E25" t="n">
-        <v>6.990969051947815</v>
+        <v>7.025226004103803</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.506174380052932</v>
+        <v>-2.530949441022205</v>
       </c>
       <c r="G25" t="n">
-        <v>1.641238509025555</v>
+        <v>1.652807549567115</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8908623907288569</v>
       </c>
       <c r="E26" t="n">
-        <v>6.97766386831546</v>
+        <v>7.004282105675776</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.530449689951192</v>
+        <v>-2.562175619360129</v>
       </c>
       <c r="G26" t="n">
-        <v>1.660016557142672</v>
+        <v>1.665991533727129</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9056828508306567</v>
       </c>
       <c r="E27" t="n">
-        <v>6.901434122270867</v>
+        <v>6.927731259730438</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.424260850961323</v>
+        <v>-2.453145675856312</v>
       </c>
       <c r="G27" t="n">
-        <v>1.618259403873686</v>
+        <v>1.629331054372915</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9077717006303263</v>
       </c>
       <c r="E28" t="n">
-        <v>6.764069473554956</v>
+        <v>6.786047502545678</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.346415374288716</v>
+        <v>-2.369198514059982</v>
       </c>
       <c r="G28" t="n">
-        <v>1.557251996751192</v>
+        <v>1.562901151377541</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8983278740761371</v>
       </c>
       <c r="E29" t="n">
-        <v>6.6000031644653</v>
+        <v>6.615702431181154</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.259329618364513</v>
+        <v>-2.286246919357876</v>
       </c>
       <c r="G29" t="n">
-        <v>1.504133573464658</v>
+        <v>1.507122635776008</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8803543539086494</v>
       </c>
       <c r="E30" t="n">
-        <v>6.40813495563611</v>
+        <v>6.415594232251954</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.205799589077758</v>
+        <v>-2.234490809620827</v>
       </c>
       <c r="G30" t="n">
-        <v>1.435163203607505</v>
+        <v>1.439844336474253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8562346925014441</v>
       </c>
       <c r="E31" t="n">
-        <v>6.114382063104248</v>
+        <v>6.119256800322916</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.999957238489661</v>
+        <v>-2.025838834901208</v>
       </c>
       <c r="G31" t="n">
-        <v>1.35319458384665</v>
+        <v>1.359528436790764</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8283797520433749</v>
       </c>
       <c r="E32" t="n">
-        <v>5.844757309682804</v>
+        <v>5.844843880734476</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.866509536357106</v>
+        <v>-1.891811106722455</v>
       </c>
       <c r="G32" t="n">
-        <v>1.265476072235684</v>
+        <v>1.267813490630815</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7981246106993068</v>
       </c>
       <c r="E33" t="n">
-        <v>5.475416870907841</v>
+        <v>5.471126094783175</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.792858820642765</v>
+        <v>-1.817496941948485</v>
       </c>
       <c r="G33" t="n">
-        <v>1.18503267700337</v>
+        <v>1.186639750526218</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7650033888895026</v>
       </c>
       <c r="E34" t="n">
-        <v>5.161157657263673</v>
+        <v>5.148726054243641</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.708353669067935</v>
+        <v>-1.736129597491967</v>
       </c>
       <c r="G34" t="n">
-        <v>1.064165322697811</v>
+        <v>1.064988534698251</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.728750849744464</v>
       </c>
       <c r="E35" t="n">
-        <v>4.740515213268156</v>
+        <v>4.729523837744114</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.656503905193169</v>
+        <v>-1.682962379612673</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9946613603585367</v>
+        <v>0.993107803485813</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6891460303632019</v>
       </c>
       <c r="E36" t="n">
-        <v>4.264876541174393</v>
+        <v>4.254807540855433</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.570148494141249</v>
+        <v>-1.593724152540091</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9241500257816297</v>
+        <v>0.9218000152335278</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6457205303946751</v>
       </c>
       <c r="E37" t="n">
-        <v>3.885419881506829</v>
+        <v>3.868326033849504</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.537483662326457</v>
+        <v>-1.559722191481753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8476212161039903</v>
+        <v>0.8454144412959268</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5997816676871385</v>
       </c>
       <c r="E38" t="n">
-        <v>3.533030054649153</v>
+        <v>3.510052523516406</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.441609370638471</v>
+        <v>-1.467054963753418</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7496558400133568</v>
+        <v>0.7469280648761427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5539824640058973</v>
       </c>
       <c r="E39" t="n">
-        <v>3.092303126665839</v>
+        <v>3.068943108886616</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.416791811152923</v>
+        <v>-1.440299786729549</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6904443887082675</v>
+        <v>0.6875733778310151</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5104822368165667</v>
       </c>
       <c r="E40" t="n">
-        <v>2.669996944459107</v>
+        <v>2.644859859091935</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.415489310330047</v>
+        <v>-1.434753730355646</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6184204217557907</v>
+        <v>0.6147671233752519</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4706367932462792</v>
       </c>
       <c r="E41" t="n">
-        <v>2.319217339162521</v>
+        <v>2.296178421284043</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.380022724479339</v>
+        <v>-1.397628128351087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5662810383627054</v>
+        <v>0.5615495368840756</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4340109358652353</v>
       </c>
       <c r="E42" t="n">
-        <v>1.938913857207698</v>
+        <v>1.917618952515621</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.351518025202144</v>
+        <v>-1.36657902716431</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5019052303206286</v>
+        <v>0.4981795270605099</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4004473034423283</v>
       </c>
       <c r="E43" t="n">
-        <v>1.704202421915825</v>
+        <v>1.681218594706592</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.333830772336088</v>
+        <v>-1.348670624611711</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4277705037264875</v>
+        <v>0.4221481074252014</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3701354920326426</v>
       </c>
       <c r="E44" t="n">
-        <v>1.497189001101479</v>
+        <v>1.475541516126231</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.337428980047382</v>
+        <v>-1.348581692531358</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3629476742539613</v>
+        <v>0.3591621582672331</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.342752023580404</v>
       </c>
       <c r="E45" t="n">
-        <v>1.275379800546908</v>
+        <v>1.252314124343368</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.266836583485728</v>
+        <v>-1.277255803059178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3039518635684902</v>
+        <v>0.2971190465629239</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3172099517033047</v>
       </c>
       <c r="E46" t="n">
-        <v>1.052698593399136</v>
+        <v>1.02824620634973</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.206177821598603</v>
+        <v>-1.217883801803716</v>
       </c>
       <c r="G46" t="n">
-        <v>0.272526571811722</v>
+        <v>0.2655568151426025</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2929832374095418</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9301108361939955</v>
+        <v>0.9029574323324373</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.155269321158374</v>
+        <v>-1.162749847032356</v>
       </c>
       <c r="G47" t="n">
-        <v>0.194848728175533</v>
+        <v>0.1873123246227453</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2697391791793766</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7715189656082234</v>
+        <v>0.7484627335194109</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.082527601486585</v>
+        <v>-1.089151073949018</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1423189880403652</v>
+        <v>0.1360465218419819</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2471773703992265</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6067868464302573</v>
+        <v>0.5811649631737247</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.025851894985911</v>
+        <v>-1.034486176875806</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09488906985821154</v>
+        <v>0.08795551562888201</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2257707801675116</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5321122312775101</v>
+        <v>0.5053995527699161</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9726909731831013</v>
+        <v>-0.9824530397734081</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08465007547415057</v>
+        <v>0.08017041705492881</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2054442000350728</v>
       </c>
       <c r="E51" t="n">
-        <v>0.413974226128287</v>
+        <v>0.3872127530279327</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9558788749484886</v>
+        <v>-0.9652332705863786</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08103612757164419</v>
+        <v>0.07756384139005487</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.186363824843229</v>
       </c>
       <c r="E52" t="n">
-        <v>0.282247713904875</v>
+        <v>0.2631643060782255</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9645336190869604</v>
+        <v>-0.9742240678072481</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02066462417415631</v>
+        <v>0.01615505939162984</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.169057315804318</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2161640951161869</v>
+        <v>0.1926482494439546</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9239632762354352</v>
+        <v>-0.9289253715153356</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03370379857501121</v>
+        <v>0.02863703102354429</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1540949269502018</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1223824618499706</v>
+        <v>0.108239900045084</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.89628100194912</v>
+        <v>-0.9048310738160253</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.004500793537199091</v>
+        <v>-0.008289457562169847</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1416757430022361</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08369307184839975</v>
+        <v>0.0726151252726855</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9146568881807449</v>
+        <v>-0.9232518195926073</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01544967054496667</v>
+        <v>-0.02178667152732324</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1321698476354435</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006840014231772364</v>
+        <v>-0.0008018486021424748</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9297580276305037</v>
+        <v>-0.939077794847725</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04726689306293878</v>
+        <v>-0.05203774501960116</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1257150961750944</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08743113898116843</v>
+        <v>-0.0930850156648805</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9653552570682794</v>
+        <v>-0.9749677918420627</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08580360320974352</v>
+        <v>-0.08856758078674752</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.122051750787671</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1222405718487331</v>
+        <v>-0.1268917983521767</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9681790473718929</v>
+        <v>-0.9784463741001372</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1096940654328454</v>
+        <v>-0.1125839645395534</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1208720804290783</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1940882486596243</v>
+        <v>-0.1959912377772769</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9746380348361502</v>
+        <v>-0.9825034083852897</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.121428377982142</v>
+        <v>-0.121554299511846</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1217579997830644</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2680152047297538</v>
+        <v>-0.2669118173257219</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.019493644745417</v>
+        <v>-1.028664667155675</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1285807208693323</v>
+        <v>-0.1280219440812706</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1238066076394607</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3402579603400914</v>
+        <v>-0.336230045408683</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.000717170647421</v>
+        <v>-1.008858784552348</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1671315971882288</v>
+        <v>-0.1652128678793632</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.126251410456577</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4684980202098223</v>
+        <v>-0.4656333054090551</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.047079116855772</v>
+        <v>-1.0542527090011</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1878393927480606</v>
+        <v>-0.1880188309278889</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1276071997549177</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5223452143495189</v>
+        <v>-0.5240876535167988</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.080576604785732</v>
+        <v>-1.092724884363931</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2232548229773261</v>
+        <v>-0.223002979917918</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1266844192045943</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6666497133712447</v>
+        <v>-0.6647876487507459</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.124214710904673</v>
+        <v>-1.136662841125479</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2750038496283288</v>
+        <v>-0.2754697592882338</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1228017227900275</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8383783475433922</v>
+        <v>-0.8305058909082069</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.197369610595804</v>
+        <v>-1.208843422980525</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3410544140154695</v>
+        <v>-0.341789480945117</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1157391309623455</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.951392133443221</v>
+        <v>-0.9443735821813413</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.224977118973857</v>
+        <v>-1.237925787275238</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3744818580945323</v>
+        <v>-0.3728338600745305</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1061431640649032</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.04903719664267</v>
+        <v>-1.042167390187753</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.291436141322976</v>
+        <v>-1.305324499039772</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4378439978224914</v>
+        <v>-0.442479484134722</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.09429271865284235</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.163941379507181</v>
+        <v>-1.159675787688456</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.364487942761662</v>
+        <v>-1.378377087488019</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4572563756454928</v>
+        <v>-0.4531088352608655</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.08118013849714791</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.342779858050243</v>
+        <v>-1.338995129073076</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.423648238445309</v>
+        <v>-1.438561282610072</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.493586310984234</v>
+        <v>-0.4896071906455859</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06797259412906598</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.404316922607055</v>
+        <v>-1.401574981297749</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.516929333630952</v>
+        <v>-1.535228092925633</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5370260906938904</v>
+        <v>-0.5334892697283278</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.05606575717624384</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.471079730646584</v>
+        <v>-1.467203708560381</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.560603642189682</v>
+        <v>-1.583253777345199</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5999081545898529</v>
+        <v>-0.5974416666267747</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.04728187893926145</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.553381255451594</v>
+        <v>-1.545774021038347</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.605737066473858</v>
+        <v>-1.626994981716584</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5944085317800283</v>
+        <v>-0.5957086715742226</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.04260553420956028</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.6194625132116</v>
+        <v>-1.618832905563079</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.607356732149676</v>
+        <v>-1.629726691901602</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6287079824522915</v>
+        <v>-0.6299435874625126</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.04258745392406355</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.676925229272924</v>
+        <v>-1.676240530955158</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.639864162052339</v>
+        <v>-1.659997440632896</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.632819320397129</v>
+        <v>-0.6338786352657643</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04677780435036263</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.68379346170872</v>
+        <v>-1.684959022868043</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.623766668498796</v>
+        <v>-1.644366643748819</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6549327150322823</v>
+        <v>-0.6547076302979363</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.05461243327011506</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.597829981418004</v>
+        <v>-1.59626383239231</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.700016876791966</v>
+        <v>-1.719869979968931</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6387533724844325</v>
+        <v>-0.6384448647366576</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.06639838152057898</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.542092390313625</v>
+        <v>-1.529284596723601</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.708438666100485</v>
+        <v>-1.726745295490773</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6114236784812886</v>
+        <v>-0.612246890481729</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.08174945712665709</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.366922163332754</v>
+        <v>-1.356589514810975</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.645785621986672</v>
+        <v>-1.664892640100141</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5716025687315026</v>
+        <v>-0.5712248041423904</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.09958202791693312</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.243705585488654</v>
+        <v>-1.23038938372245</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.611021048664064</v>
+        <v>-1.629871501660761</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5832487362100064</v>
+        <v>-0.5863338136877557</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1189082741782591</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.05752037269692</v>
+        <v>-1.042239795067333</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.568217959688974</v>
+        <v>-1.586907862735298</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5719488529381888</v>
+        <v>-0.5738990626294803</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1389507682630432</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9121998443323945</v>
+        <v>-0.8961173039605047</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.524049409126155</v>
+        <v>-1.542112852562202</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5364311114660387</v>
+        <v>-0.5374888523155528</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1590576911111196</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6893738274254626</v>
+        <v>-0.6687305666496042</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.509343348475843</v>
+        <v>-1.528292964677182</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.483540920952093</v>
+        <v>-0.4830639931583389</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.178831743062458</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4782396245515523</v>
+        <v>-0.454692298496894</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.398930629173964</v>
+        <v>-1.412814264833396</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3959467568517097</v>
+        <v>-0.3964850713911946</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1965622788657497</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2793308281927844</v>
+        <v>-0.2545935436824228</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.362272510848431</v>
+        <v>-1.368016893631618</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3734272652832608</v>
+        <v>-0.3728590443804712</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2102573814957287</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.08317341725805007</v>
+        <v>-0.05794818682008525</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.231325138090063</v>
+        <v>-1.236622499442801</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3511045261049744</v>
+        <v>-0.3516522847591871</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.217890280240434</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1897331660313058</v>
+        <v>0.2148293269013239</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.117367727727015</v>
+        <v>-1.12081168156442</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2845612937328666</v>
+        <v>-0.2888111453603784</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2189760769173093</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4320534097555467</v>
+        <v>0.4557313793972729</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9759956263282721</v>
+        <v>-0.9793364819132327</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2176717771540725</v>
+        <v>-0.2199635489946863</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2142581234594386</v>
       </c>
       <c r="E88" t="n">
-        <v>0.604743769610809</v>
+        <v>0.6255239700502208</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8218889232286463</v>
+        <v>-0.8261261827031877</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1939528830151925</v>
+        <v>-0.1976707161797047</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2050673940706897</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7975941663716906</v>
+        <v>0.8161250934867635</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7063921221649657</v>
+        <v>-0.7137490875379251</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1316075596395935</v>
+        <v>-0.1331044518239505</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1922479598150734</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9404426977062132</v>
+        <v>0.958517159276109</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5120180748946651</v>
+        <v>-0.5140879100391754</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1149087907817145</v>
+        <v>-0.116235688900971</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1767404831477057</v>
       </c>
       <c r="E91" t="n">
-        <v>1.065125474361805</v>
+        <v>1.083867320039132</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3111779570740612</v>
+        <v>-0.3160589903692146</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.134363667120991</v>
+        <v>-0.1382074218152073</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1583529644199875</v>
       </c>
       <c r="E92" t="n">
-        <v>1.132558027537447</v>
+        <v>1.149916310407151</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.176246741919681</v>
+        <v>-0.1794640370036197</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09512022238872229</v>
+        <v>-0.09935118578677854</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1366385064551376</v>
       </c>
       <c r="E93" t="n">
-        <v>1.166193242140522</v>
+        <v>1.178025143875339</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07778240176759521</v>
+        <v>-0.07908883763827479</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09074444923150637</v>
+        <v>-0.0949077298073467</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1115115887192534</v>
       </c>
       <c r="E94" t="n">
-        <v>1.158907107628021</v>
+        <v>1.172070629539459</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07995162839706801</v>
+        <v>0.07869556113827006</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0512035148853118</v>
+        <v>-0.05424294580854343</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08474119049873294</v>
       </c>
       <c r="E95" t="n">
-        <v>1.178783821091806</v>
+        <v>1.190324529289183</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1613362870639201</v>
+        <v>0.1624853210224696</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08323952606114469</v>
+        <v>-0.08782306974237231</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05884128059170688</v>
       </c>
       <c r="E96" t="n">
-        <v>1.099081788865624</v>
+        <v>1.109393188129265</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2449670710168682</v>
+        <v>0.2493302520211137</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1070638794811519</v>
+        <v>-0.1095272194059875</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03612489699775337</v>
       </c>
       <c r="E97" t="n">
-        <v>1.052018617138734</v>
+        <v>1.062909255439013</v>
       </c>
       <c r="F97" t="n">
-        <v>0.295156244718662</v>
+        <v>0.2998279334706824</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06958963224122514</v>
+        <v>-0.07570312250835701</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01861405764815605</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9298259387330401</v>
+        <v>0.9389662677704331</v>
       </c>
       <c r="F98" t="n">
-        <v>0.272861837884559</v>
+        <v>0.2778735147667804</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1269673512699991</v>
+        <v>-0.1317744056664514</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.008362826310292774</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9027433657319405</v>
+        <v>0.9124676558633361</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2471738458249318</v>
+        <v>0.2498858807709329</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1117796407685688</v>
+        <v>-0.1167393750197872</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0002888334388875565</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8436499658609488</v>
+        <v>0.8519387505537181</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2395130947615613</v>
+        <v>0.2442776506417385</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1120802784207372</v>
+        <v>-0.1165489187061099</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.008706818433160939</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7909832860622277</v>
+        <v>0.795774600267467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2114971284215304</v>
+        <v>0.2132993803154197</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09565381487084322</v>
+        <v>-0.1009771475390821</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02992281410628117</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807867901944419</v>
+        <v>0.7870781446222807</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1756771752780907</v>
+        <v>0.1777328442505093</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07714492402346844</v>
+        <v>-0.08282083697487871</v>
       </c>
     </row>
   </sheetData>
